--- a/data/financial_statements/soci/TXN.xlsx
+++ b/data/financial_statements/soci/TXN.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,1113 +596,1137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>4670000000</v>
+      </c>
+      <c r="C2">
         <v>5241000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5212000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4905000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4832000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4643000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4580000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4289000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4076000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3817000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3239000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3329000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3350000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3771000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3668000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3594000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3717000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4261000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4017000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3789000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3750000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4116000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3693000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>3402000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3414000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3675000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3273000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3008000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3189000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3429000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3232000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>3150000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3269000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>3501000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3292000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>2983000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3029000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>3244000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3047000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>2885000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>-0.0335</v>
+      </c>
+      <c r="C3">
         <v>0.1288</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.138</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1436</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1855</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2164</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.414</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.2884</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.2167</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.0122</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.117</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0737</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.0987</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.115</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.08690000000000001</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.0515</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-0.008800000000000001</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0352</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0877</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1138</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0984</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.12</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.1283</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.131</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0706</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.0717</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0127</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0451</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0245</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.0206</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.0182</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.056</v>
-      </c>
-      <c r="AG3">
-        <v>0.07920000000000001</v>
       </c>
       <c r="AH3">
         <v>0.07920000000000001</v>
       </c>
       <c r="AI3">
+        <v>0.07920000000000001</v>
+      </c>
+      <c r="AJ3">
         <v>0.0804</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.034</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0168</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.0431</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.0864</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0756</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1583000000</v>
+      </c>
+      <c r="C4">
         <v>1624000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1587000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1463000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1482000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1491000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1503000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1492000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1430000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1364000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1157000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1241000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1253000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1325000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1308000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1333000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1310000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1457000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1398000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1342000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1310000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1460000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1319000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1258000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1277000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1391000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1266000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1179000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1308000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1432000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1351000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1334000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1374000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1457000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1411000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1376000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1388000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1465000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1477000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1511000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>3087000000</v>
+      </c>
+      <c r="C5">
         <v>3617000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3625000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3442000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3350000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3152000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3077000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2797000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2646000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2453000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2082000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2088000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2097000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2446000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2360000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2261000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2407000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2804000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2619000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2447000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2440000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2656000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>2374000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>2144000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2137000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>2284000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2007000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1829000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1881000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1997000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1881000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1816000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1895000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2044000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1881000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1607000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1641000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1779000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1570000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1374000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>434000000</v>
+      </c>
+      <c r="C6">
         <v>431000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>414000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>391000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>389000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>388000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>391000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>386000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>388000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>386000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>379000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>377000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>386000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>379000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>390000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>389000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>400000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>390000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>384000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>385000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>386000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>375000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>378000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>369000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>340000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>353000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>341000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>322000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>293000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>316000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>320000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>338000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>311000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>332000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>349000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>366000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>346000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>368000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>389000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>419000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>429000000</v>
+      </c>
+      <c r="C7">
         <v>431000000</v>
-      </c>
-      <c r="C7">
-        <v>422000000</v>
       </c>
       <c r="D7">
         <v>422000000</v>
       </c>
       <c r="E7">
+        <v>422000000</v>
+      </c>
+      <c r="F7">
         <v>404000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>412000000</v>
-      </c>
-      <c r="G7">
-        <v>425000000</v>
       </c>
       <c r="H7">
         <v>425000000</v>
       </c>
       <c r="I7">
+        <v>425000000</v>
+      </c>
+      <c r="J7">
         <v>398000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>407000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>401000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>417000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>412000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>399000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>420000000</v>
-      </c>
-      <c r="P7">
-        <v>414000000</v>
       </c>
       <c r="Q7">
         <v>414000000</v>
       </c>
       <c r="R7">
+        <v>414000000</v>
+      </c>
+      <c r="S7">
         <v>396000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>441000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>433000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>409000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>412000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>434000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>439000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>405000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>442000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>454000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>441000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>385000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>434000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>470000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>439000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>429000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>463000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>472000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>479000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>463000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>465000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>471000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>459000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>2176000000</v>
+      </c>
+      <c r="C8">
         <v>2678000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2723000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2563000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2503000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2305000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2213000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1939000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1813000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1609000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1228000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1244000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1249000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1589000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1506000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1379000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1516000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1937000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1712000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1548000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1563000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1788000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1480000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1252000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1332000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>1408000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>1131000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>984000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1190000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>1164000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1010000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>958000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>1100000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>1175000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>982000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>690000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>687000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>844000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>906000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>395000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>53000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>49000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>52000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>49000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>45000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>44000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>46000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>48000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>49000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>48000000</v>
-      </c>
-      <c r="L9">
-        <v>45000000</v>
       </c>
       <c r="M9">
         <v>45000000</v>
       </c>
+      <c r="N9">
+        <v>45000000</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>60000000</v>
+      </c>
+      <c r="C10">
         <v>53000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>49000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>52000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>49000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>45000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>44000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>46000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>48000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>49000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>48000000</v>
-      </c>
-      <c r="L10">
-        <v>45000000</v>
       </c>
       <c r="M10">
         <v>45000000</v>
       </c>
       <c r="N10">
+        <v>45000000</v>
+      </c>
+      <c r="O10">
         <v>43000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>44000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>38000000</v>
-      </c>
-      <c r="Q10">
-        <v>36000000</v>
       </c>
       <c r="R10">
         <v>36000000</v>
       </c>
       <c r="S10">
+        <v>36000000</v>
+      </c>
+      <c r="T10">
         <v>30000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>23000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>21000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>19000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>20000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>18000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>19000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>18000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>21000000</v>
-      </c>
-      <c r="AB10">
-        <v>22000000</v>
       </c>
       <c r="AC10">
         <v>22000000</v>
@@ -1597,25 +1735,25 @@
         <v>22000000</v>
       </c>
       <c r="AE10">
+        <v>22000000</v>
+      </c>
+      <c r="AF10">
         <v>24000000</v>
-      </c>
-      <c r="AF10">
-        <v>22000000</v>
       </c>
       <c r="AG10">
         <v>22000000</v>
       </c>
       <c r="AH10">
+        <v>22000000</v>
+      </c>
+      <c r="AI10">
         <v>23000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>24000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>25000000</v>
-      </c>
-      <c r="AK10">
-        <v>24000000</v>
       </c>
       <c r="AL10">
         <v>24000000</v>
@@ -1624,509 +1762,521 @@
         <v>24000000</v>
       </c>
       <c r="AN10">
+        <v>24000000</v>
+      </c>
+      <c r="AO10">
         <v>23000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-9000000</v>
+      </c>
+      <c r="C11">
         <v>-20000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-42000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-37000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-40000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-30000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>29000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>93000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>114000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-22000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>51000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-20000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>8000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-9000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>8000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-2000000</v>
-      </c>
-      <c r="Q11">
-        <v>-13000000</v>
       </c>
       <c r="R11">
         <v>-13000000</v>
       </c>
       <c r="S11">
+        <v>-13000000</v>
+      </c>
+      <c r="T11">
         <v>-6000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>5000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-13000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>6000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>3000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>165000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-27000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-29000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-34000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-51000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-16000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-21000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-18000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-13000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-20000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-21000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-19000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-5000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-28000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-24000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-21000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>2167000000</v>
+      </c>
+      <c r="C12">
         <v>2658000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2681000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2526000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2463000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2275000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2242000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1939000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1927000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1587000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1279000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1224000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1257000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1580000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1514000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1377000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1503000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1924000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1706000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1553000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1550000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1789000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1486000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1255000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1497000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1381000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1102000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>950000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1139000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1148000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>989000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>940000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1087000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1155000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>961000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>671000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>682000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>816000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>882000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>374000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>205000000</v>
+      </c>
+      <c r="C13">
         <v>363000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>390000000</v>
-      </c>
-      <c r="D13">
-        <v>325000000</v>
       </c>
       <c r="E13">
         <v>325000000</v>
       </c>
       <c r="F13">
+        <v>325000000</v>
+      </c>
+      <c r="G13">
         <v>328000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>311000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>186000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>239000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>234000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-101000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>50000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>187000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>155000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>209000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>160000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>264000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>354000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>301000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>187000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>1206000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>504000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>430000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>258000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>450000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>363000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>283000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>239000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>303000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>350000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>293000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>284000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>262000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>329000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>278000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>184000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>171000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>187000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>222000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>12000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>1962000000</v>
+      </c>
+      <c r="C14">
         <v>2295000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2291000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2201000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2138000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1947000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1931000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1753000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1688000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1353000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1380000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1174000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1070000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1425000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1305000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1217000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1239000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1570000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1405000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1366000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>344000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1285000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1056000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>997000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1047000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1018000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>819000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>711000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>836000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>798000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>696000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>656000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>825000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>826000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>683000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>487000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>511000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>629000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>660000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>362000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>11000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>10000000</v>
-      </c>
-      <c r="D15">
-        <v>9000000</v>
       </c>
       <c r="E15">
         <v>9000000</v>
@@ -2135,429 +2285,435 @@
         <v>9000000</v>
       </c>
       <c r="G15">
+        <v>9000000</v>
+      </c>
+      <c r="H15">
         <v>7000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>8000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>20000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>7000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>6000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>24000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>8000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>14000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>13000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>10000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>7000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>8000000</v>
-      </c>
-      <c r="AL15">
-        <v>11000000</v>
       </c>
       <c r="AM15">
         <v>11000000</v>
       </c>
       <c r="AN15">
+        <v>11000000</v>
+      </c>
+      <c r="AO15">
         <v>7000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>1962000000</v>
+      </c>
+      <c r="C16">
         <v>2284000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2281000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2192000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2129000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1938000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1924000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1745000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1668000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1353000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1373000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1174000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1046000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1425000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1305000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1209000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1196000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1570000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1405000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1366000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>310000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1285000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1056000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>997000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1047000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1018000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>819000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>711000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>836000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>798000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>696000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>656000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>811000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>813000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>673000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>480000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>503000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>618000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>649000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>355000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>2.51</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2.48</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2.38</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.31</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2.1</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2.09</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.9</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.84</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1.48</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.51</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.26</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.14</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.52</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.39</v>
-      </c>
-      <c r="P17">
-        <v>1.3</v>
       </c>
       <c r="Q17">
         <v>1.3</v>
       </c>
       <c r="R17">
+        <v>1.3</v>
+      </c>
+      <c r="S17">
         <v>1.62</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.44</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1.39</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.34</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1.29</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1.06</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1.02</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.76</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.65</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.8</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.76</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.65</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>0.61</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.76</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.77</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.63</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.44</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.46</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.59</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.32</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>2.47</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2.45</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2.35</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.27</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2.07</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2.05</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.87</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.8</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.45</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1.48</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1.24</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1.12</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1.49</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1.36</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1.26</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1.27</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1.58</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1.4</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1.35</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.34</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1.26</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1.03</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.97</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1.02</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.76</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.65</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.8</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.76</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.65</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.61</v>
-      </c>
-      <c r="AG18">
-        <v>0.76</v>
       </c>
       <c r="AH18">
         <v>0.76</v>
       </c>
       <c r="AI18">
+        <v>0.76</v>
+      </c>
+      <c r="AJ18">
         <v>0.62</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.44</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.46</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.58</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.32</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>906000000</v>
+      </c>
+      <c r="C19">
         <v>913000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>920000000</v>
-      </c>
-      <c r="D19">
-        <v>923000000</v>
       </c>
       <c r="E19">
         <v>923000000</v>
@@ -2569,2054 +2725,2099 @@
         <v>923000000</v>
       </c>
       <c r="H19">
+        <v>923000000</v>
+      </c>
+      <c r="I19">
         <v>922000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>921000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>917000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>916000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>931000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>936000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>935000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>937000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>939000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>970000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>969000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>977000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>983000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>991000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>988000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>994000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>998000000</v>
-      </c>
-      <c r="Y19">
-        <v>1003000000</v>
       </c>
       <c r="Z19">
         <v>1003000000</v>
       </c>
       <c r="AA19">
+        <v>1003000000</v>
+      </c>
+      <c r="AB19">
         <v>1004000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1007000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1030000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>1023000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>1038000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1046000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>1065000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>1060000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1071000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1081000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1098000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1096000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>1103000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1107000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>916000000</v>
+      </c>
+      <c r="C20">
         <v>923000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>930000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>934000000</v>
-      </c>
-      <c r="E20">
-        <v>936000000</v>
       </c>
       <c r="F20">
         <v>936000000</v>
       </c>
       <c r="G20">
+        <v>936000000</v>
+      </c>
+      <c r="H20">
         <v>937000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>935000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>933000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>929000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>927000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>943000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>952000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>950000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>953000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>956000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>990000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>989000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>997000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1005000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1012000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>1008000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>1015000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>1019000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>1021000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>1023000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>1020000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>1022000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>1043000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>1035000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1051000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>1061000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>1080000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>1074000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1086000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>1096000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>1113000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>1111000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>1117000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>1123000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.661</v>
+      </c>
+      <c r="C21">
         <v>0.6901</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.6955</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.7017</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.6933</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.6788999999999999</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.6718</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.6521</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.6492</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.6427</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.6428</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.6272</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.626</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.6486</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.6434</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.6291</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.6476</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.6581</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.652</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.6458</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.6506999999999999</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.6453</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.6428</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.6302</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.626</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.6215000000000001</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.6132</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.608</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.5898</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.5824</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.582</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.5765</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.5797</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.5838</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.5714</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.5387</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.5417999999999999</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.5484</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.5153</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.4763</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.466</v>
+      </c>
+      <c r="C22">
         <v>0.511</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.5224</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.5225</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.518</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.4964</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.4832</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.4521</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.4448</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.4215</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.3791</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.3737</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.3728</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.4214</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.4106</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.3837</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.4079</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.4546</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.4262</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.4086</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.4168</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.4344</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.4008</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.368</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.3902</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.3831</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.3456</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.3271</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.3732</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.3395</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.3125</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.3041</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.3365</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.3356</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.2983</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.2313</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.2268</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2602</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2973</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1369</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.464</v>
+      </c>
+      <c r="C23">
         <v>0.5072</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.5144</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.515</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.5097</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.49</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.4895</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.4521</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.4728</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.4158</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.3949</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.3677</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.3752</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.419</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.4128</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.3831</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.4044</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.4515</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.4247</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.4099</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.4133</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.4346</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.4024</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.3689</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.4385</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.3758</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.3367</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.3158</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.3572</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.3348</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.306</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.2984</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.3325</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.3299</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.2919</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.2249</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.2252</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.2515</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.2895</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.1296</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.4201</v>
+      </c>
+      <c r="C24">
         <v>0.4358</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.4376</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.4469</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.4406</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.4174</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.4201</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.4069</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.4092</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.3545</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.4239</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.3527</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.3122</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.3779</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.3558</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.3364</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.3218</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.3685</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.3498</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.3605</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0827</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.3122</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.2859</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.2931</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.3067</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.277</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.2502</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.2364</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.2622</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.2327</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.2153</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.2083</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.2481</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.2322</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.2044</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.1609</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.1661</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.1905</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.213</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.1231</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>2940000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2963000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2777000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2716000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>2558000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2460000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2180000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2056000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1859000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1477000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1494000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1499000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1864000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1773000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1637000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1765000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2180000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1945000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1777000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1787000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>2013000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1705000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1482000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1559000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1645000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1373000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1233000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1451000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1449000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1301000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1254000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1405000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1483000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1289000000</v>
-      </c>
-      <c r="AJ25">
-        <v>1000000000</v>
       </c>
       <c r="AK25">
         <v>1000000000</v>
       </c>
       <c r="AL25">
+        <v>1000000000</v>
+      </c>
+      <c r="AM25">
         <v>1162000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1227000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>740000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>2176000000</v>
+      </c>
+      <c r="C26">
         <v>2678000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2723000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2563000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2503000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2305000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2213000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1939000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1813000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1609000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1228000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1244000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1249000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1589000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1506000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1379000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1516000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1937000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1712000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1548000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1563000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1788000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1480000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1252000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1332000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1408000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1131000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>984000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1190000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1164000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1010000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>958000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1100000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1175000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>982000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>690000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>687000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>844000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>906000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>395000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1962000000</v>
+      </c>
+      <c r="C27">
         <v>2295000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2291000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2201000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2138000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1947000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1931000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1753000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1688000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1353000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1380000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1174000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1070000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1425000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1305000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1217000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1239000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1570000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1405000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1366000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>344000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1285000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1056000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>997000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1047000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1018000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>819000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>711000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>836000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>798000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>696000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>656000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>825000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>826000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>683000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>487000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>511000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>629000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>660000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>362000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1962000000</v>
+      </c>
+      <c r="C28">
         <v>2295000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2291000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2201000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2138000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1947000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1931000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1753000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1688000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1353000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1380000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1174000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1070000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1425000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1305000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1217000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1239000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1570000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1405000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1366000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>344000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1285000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1056000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>997000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1047000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>1018000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>819000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>711000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>836000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>798000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>696000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>656000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>825000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>826000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>683000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>487000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>511000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>629000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>660000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>362000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>2.1656</v>
+      </c>
+      <c r="C29">
         <v>2.5137</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.4902</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2.3846</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2.3143</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2.1094</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.0921</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1.9013</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1.8319</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.4755</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.5066</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.261</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.1472</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1.5241</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1.3927</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1.2961</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1.3047</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1.6202</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.4381</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1.3896</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.3535</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1.3006</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1.0624</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.999</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1.0475</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>1.015</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.8157</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.7060999999999999</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.8213</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.7801</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.6705</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.6272</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.7814</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.7792</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.6377</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.4505</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.4698</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.5739</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.5984</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.327</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>2.1419</v>
+      </c>
+      <c r="C30">
         <v>2.4865</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.4634</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2.3565</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2.2844</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.0801</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.0608</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1.8749</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.8067</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.4564</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.4887</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1.245</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.1276</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.5</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1.3694</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.273</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1.2805</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1.5875</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.4092</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.3592</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.3447</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.2748</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1.0404</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.9784</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.0273</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.9951</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.8028999999999999</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.6957</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.8114</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.771</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.6622</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.6183</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.7697000000000001</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.7691</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.6289</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.4443</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.4631</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.5662</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.5909</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.3224</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>2.1656</v>
+      </c>
+      <c r="C31">
         <v>2.5137</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.4902</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2.3846</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.3143</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2.1094</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.0921</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.9013</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.8319</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.4755</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.5066</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.261</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.1472</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.5241</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1.3927</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.2961</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1.3047</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.6202</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.4381</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.3896</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.3535</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.3006</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1.0624</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.999</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.0475</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1.015</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.8157</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.7060999999999999</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.8213</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.7801</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.6705</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.6272</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.7814</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.7792</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.6377</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.4505</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.4698</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.5739</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.5984</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.327</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>2.1419</v>
+      </c>
+      <c r="C32">
         <v>2.4865</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2.4634</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2.3565</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2.2844</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2.0801</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2.0608</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1.8749</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1.8067</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1.4564</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>1.4887</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1.245</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1.1276</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1.5</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1.3694</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>1.273</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1.2805</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1.5875</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>1.4092</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1.3592</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.3447</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>1.2748</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>1.0404</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0.9784</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1.0273</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.9951</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>0.8028999999999999</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.6957</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>0.8114</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.771</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>0.6622</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>0.6183</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0.7697000000000001</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>0.7691</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.6289</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0.4443</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.4631</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>0.5662</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.5909</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.3224</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>923000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>930000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>934000000</v>
-      </c>
-      <c r="E33">
-        <v>936000000</v>
       </c>
       <c r="F33">
         <v>936000000</v>
       </c>
       <c r="G33">
+        <v>936000000</v>
+      </c>
+      <c r="H33">
         <v>937000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>935000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>932000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>929000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>927000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>943000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>948000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>950000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>953000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>956000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>970000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>989000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>997000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>1005000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>1007000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>1008000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>1015000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>1019000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>1018000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>1017000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>1016000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>1018000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>1027000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>1035000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>1051000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>1061000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>1063000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>1074000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>1086000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>1096000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>1102000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>1111000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>1117000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>1123000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0.5610000000000001</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.5685</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.5662</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.5621</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.5508999999999999</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.5371</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.5083</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.5044</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.487</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.456</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.4488</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.4475</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.4943</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.4834</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.4555</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.4748</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.5116000000000001</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.4842</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.469</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.4765</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.4891</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.4617</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.4356</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.4566</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.4476</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.4195</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.4099</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.455</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.4226</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.4025</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.3981</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.4298</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.4236</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.3916</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.3352</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.3301</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.3582</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.4027</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.2565</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>0.4373</v>
+      </c>
+      <c r="C35">
         <v>0.5278</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.3392</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.4371</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.4878</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.5229</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.4631</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.4313</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.5213</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.378</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.531</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.2556</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.5236</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.5282</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.4896</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.308</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.5770999999999999</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.4943</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.4546</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.2935</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.5144</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.4184</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.2483</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.2337</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.4063</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.3986</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.3388</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.2171</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.4889</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.4109</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.2537</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.1933</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.4387</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.395</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.2354</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.1549</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>0.3958</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>0.3545</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>0.2215</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.1248</v>
       </c>
     </row>
